--- a/docs/鍵盤設計規格_台語方音V4.xlsx
+++ b/docs/鍵盤設計規格_台語方音V4.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\home\alanjui\workspace\rime\rime-tlpa\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D14E500A-C466-4745-A7A6-39CCE9FC80BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D6B237C-AE94-427E-BF5F-EBA3F9639369}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" tabRatio="762" activeTab="4" xr2:uid="{E87E5C8B-EACA-42E9-8621-62DDB8F02212}"/>
   </bookViews>
@@ -11825,7 +11825,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D54" sqref="D3:D54"/>
+      <selection pane="bottomLeft" activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="23.25" outlineLevelCol="1"/>
@@ -17071,7 +17071,7 @@
   <dimension ref="B1:DE99"/>
   <sheetViews>
     <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="W1" sqref="W1"/>
       <selection pane="bottomLeft" activeCell="BF12" sqref="BF12:DE12"/>
     </sheetView>
@@ -24718,7 +24718,7 @@
   <dimension ref="B1:Y11"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="AD6" sqref="AD6"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21"/>
@@ -25349,7 +25349,7 @@
   </sheetPr>
   <dimension ref="A1:CH69"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="AH43" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="BJ4" sqref="BJ4:BJ55"/>
     </sheetView>
   </sheetViews>

--- a/docs/鍵盤設計規格_台語方音V4.xlsx
+++ b/docs/鍵盤設計規格_台語方音V4.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\home\alanjui\workspace\rime\rime-tlpa\docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\rime-tlpa\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D6B237C-AE94-427E-BF5F-EBA3F9639369}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26D9DAB0-7CB7-4E04-BA4B-AED9D59D2D44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" tabRatio="762" activeTab="4" xr2:uid="{E87E5C8B-EACA-42E9-8621-62DDB8F02212}"/>
   </bookViews>
@@ -5564,7 +5564,7 @@
   <numFmts count="3">
     <numFmt numFmtId="176" formatCode="General;;\(&quot;空&quot;&quot;白&quot;&quot;字&quot;&quot;元&quot;\)"/>
     <numFmt numFmtId="177" formatCode="General;;"/>
-    <numFmt numFmtId="179" formatCode="&quot;[ &quot;@&quot; ]&quot;"/>
+    <numFmt numFmtId="178" formatCode="&quot;[ &quot;@&quot; ]&quot;"/>
   </numFmts>
   <fonts count="188">
     <font>
@@ -5602,6 +5602,7 @@
     <font>
       <sz val="18"/>
       <name val="宋体"/>
+      <charset val="136"/>
     </font>
     <font>
       <sz val="18"/>
@@ -5675,6 +5676,7 @@
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <charset val="136"/>
     </font>
     <font>
       <sz val="16"/>
@@ -5784,6 +5786,7 @@
       <sz val="18"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
+      <charset val="136"/>
     </font>
     <font>
       <sz val="18"/>
@@ -5912,6 +5915,7 @@
     <font>
       <sz val="20"/>
       <name val="宋体"/>
+      <charset val="136"/>
     </font>
     <font>
       <sz val="18"/>
@@ -5938,6 +5942,7 @@
       <sz val="20"/>
       <color rgb="FF000000"/>
       <name val="宋体"/>
+      <charset val="136"/>
     </font>
     <font>
       <b/>
@@ -5957,6 +5962,7 @@
       <sz val="20"/>
       <color rgb="FF000000"/>
       <name val="宋体"/>
+      <charset val="136"/>
     </font>
     <font>
       <b/>
@@ -6005,6 +6011,7 @@
       <sz val="18"/>
       <color rgb="FF0070C0"/>
       <name val="宋体"/>
+      <charset val="136"/>
     </font>
     <font>
       <sz val="18"/>
@@ -6528,6 +6535,7 @@
     <font>
       <sz val="12"/>
       <name val="宋体"/>
+      <charset val="136"/>
     </font>
     <font>
       <sz val="36"/>
@@ -6742,6 +6750,7 @@
     <font>
       <sz val="14"/>
       <name val="宋体"/>
+      <charset val="136"/>
     </font>
     <font>
       <sz val="18"/>
@@ -7327,7 +7336,7 @@
     <xf numFmtId="0" fontId="110" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="143" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="471">
+  <cellXfs count="463">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -8462,17 +8471,71 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="184" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="185" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="105" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="106" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="125" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="106" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="160" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="93" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="94" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="95" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="95" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="158" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="89" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="111" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="111" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="89" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="111" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="96" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="159" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="186" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="147" fillId="23" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="56" fillId="7" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="56" fillId="7" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="56" fillId="7" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="57" fillId="7" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -8510,91 +8573,19 @@
     <xf numFmtId="9" fontId="56" fillId="14" borderId="19" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="185" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="56" fillId="7" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="7" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="7" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="187" fillId="14" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="89" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="122" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="156" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="111" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="105" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="106" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="125" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="106" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="160" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="89" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="93" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="94" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="95" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="95" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="158" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="89" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="111" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="111" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="89" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="111" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="96" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="159" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="186" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="187" fillId="14" borderId="23" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="187" fillId="14" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -8602,12 +8593,6 @@
     </xf>
     <xf numFmtId="0" fontId="187" fillId="14" borderId="23" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="187" fillId="14" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="187" fillId="14" borderId="23" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -12756,25 +12741,25 @@
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="C23" s="453" t="s">
+      <c r="C23" s="429" t="s">
         <v>223</v>
       </c>
-      <c r="D23" s="454" t="s">
+      <c r="D23" s="430" t="s">
         <v>52</v>
       </c>
-      <c r="E23" s="455" t="s">
+      <c r="E23" s="431" t="s">
         <v>272</v>
       </c>
       <c r="F23" s="290" t="s">
         <v>478</v>
       </c>
-      <c r="G23" s="456" t="s">
+      <c r="G23" s="432" t="s">
         <v>478</v>
       </c>
-      <c r="H23" s="457" t="s">
+      <c r="H23" s="433" t="s">
         <v>52</v>
       </c>
-      <c r="I23" s="457" t="s">
+      <c r="I23" s="433" t="s">
         <v>52</v>
       </c>
       <c r="J23" s="262" t="s">
@@ -12802,7 +12787,7 @@
       <c r="F24" s="293" t="s">
         <v>487</v>
       </c>
-      <c r="G24" s="458" t="s">
+      <c r="G24" s="434" t="s">
         <v>247</v>
       </c>
       <c r="H24" s="358" t="s">
@@ -12814,7 +12799,7 @@
       <c r="J24" s="262" t="s">
         <v>58</v>
       </c>
-      <c r="K24" s="459"/>
+      <c r="K24" s="435"/>
       <c r="L24"/>
       <c r="M24"/>
       <c r="N24"/>
@@ -12824,31 +12809,31 @@
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="C25" s="439" t="s">
+      <c r="C25" s="71" t="s">
         <v>208</v>
       </c>
-      <c r="D25" s="440" t="s">
+      <c r="D25" s="32" t="s">
         <v>115</v>
       </c>
-      <c r="E25" s="441" t="s">
+      <c r="E25" s="192" t="s">
         <v>352</v>
       </c>
-      <c r="F25" s="442" t="s">
+      <c r="F25" s="295" t="s">
         <v>502</v>
       </c>
-      <c r="G25" s="452" t="s">
+      <c r="G25" s="219" t="s">
         <v>206</v>
       </c>
-      <c r="H25" s="443" t="s">
+      <c r="H25" s="359" t="s">
         <v>549</v>
       </c>
-      <c r="I25" s="443" t="s">
+      <c r="I25" s="359" t="s">
         <v>115</v>
       </c>
-      <c r="J25" s="444" t="s">
+      <c r="J25" s="237" t="s">
         <v>380</v>
       </c>
-      <c r="K25" s="460"/>
+      <c r="K25" s="436"/>
       <c r="L25"/>
       <c r="M25" s="239" t="s">
         <v>142</v>
@@ -12867,35 +12852,35 @@
       </c>
     </row>
     <row r="26" spans="2:17" ht="32.25">
-      <c r="B26" s="445">
+      <c r="B26" s="94">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="C26" s="439" t="s">
+      <c r="C26" s="71" t="s">
         <v>170</v>
       </c>
-      <c r="D26" s="440" t="s">
+      <c r="D26" s="32" t="s">
         <v>54</v>
       </c>
-      <c r="E26" s="441" t="s">
+      <c r="E26" s="192" t="s">
         <v>207</v>
       </c>
-      <c r="F26" s="442" t="s">
+      <c r="F26" s="295" t="s">
         <v>483</v>
       </c>
-      <c r="G26" s="452" t="s">
+      <c r="G26" s="219" t="s">
         <v>207</v>
       </c>
-      <c r="H26" s="443" t="s">
+      <c r="H26" s="359" t="s">
         <v>54</v>
       </c>
-      <c r="I26" s="443" t="s">
+      <c r="I26" s="359" t="s">
         <v>54</v>
       </c>
-      <c r="J26" s="444" t="s">
+      <c r="J26" s="237" t="s">
         <v>54</v>
       </c>
-      <c r="K26" s="444"/>
+      <c r="K26" s="237"/>
       <c r="L26"/>
       <c r="M26" s="239" t="s">
         <v>178</v>
@@ -12914,36 +12899,36 @@
       </c>
     </row>
     <row r="27" spans="2:17" ht="32.25">
-      <c r="B27" s="445">
+      <c r="B27" s="94">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="C27" s="439" t="s">
+      <c r="C27" s="71" t="s">
         <v>197</v>
       </c>
-      <c r="D27" s="440" t="s">
+      <c r="D27" s="32" t="s">
         <v>111</v>
       </c>
-      <c r="E27" s="441" t="s">
+      <c r="E27" s="192" t="s">
         <v>205</v>
       </c>
-      <c r="F27" s="442" t="s">
+      <c r="F27" s="295" t="s">
         <v>499</v>
       </c>
-      <c r="G27" s="452" t="s">
+      <c r="G27" s="219" t="s">
         <v>294</v>
       </c>
-      <c r="H27" s="443" t="str">
+      <c r="H27" s="359" t="str">
         <f xml:space="preserve"> _xlfn.UNICHAR(8304) &amp; "ㄧ"</f>
         <v>⁰ㄧ</v>
       </c>
-      <c r="I27" s="443" t="s">
+      <c r="I27" s="359" t="s">
         <v>111</v>
       </c>
-      <c r="J27" s="444" t="s">
+      <c r="J27" s="237" t="s">
         <v>392</v>
       </c>
-      <c r="K27" s="444"/>
+      <c r="K27" s="237"/>
       <c r="L27"/>
       <c r="M27" s="239" t="s">
         <v>172</v>
@@ -12962,35 +12947,35 @@
       </c>
     </row>
     <row r="28" spans="2:17" ht="32.25">
-      <c r="B28" s="445">
+      <c r="B28" s="94">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="C28" s="463" t="s">
+      <c r="C28" s="439" t="s">
         <v>194</v>
       </c>
-      <c r="D28" s="440" t="s">
+      <c r="D28" s="32" t="s">
         <v>56</v>
       </c>
-      <c r="E28" s="464" t="s">
+      <c r="E28" s="440" t="s">
         <v>170</v>
       </c>
-      <c r="F28" s="442" t="s">
+      <c r="F28" s="295" t="s">
         <v>484</v>
       </c>
-      <c r="G28" s="452" t="s">
+      <c r="G28" s="219" t="s">
         <v>170</v>
       </c>
-      <c r="H28" s="465" t="s">
+      <c r="H28" s="441" t="s">
         <v>56</v>
       </c>
-      <c r="I28" s="465" t="s">
+      <c r="I28" s="441" t="s">
         <v>56</v>
       </c>
-      <c r="J28" s="444" t="s">
+      <c r="J28" s="237" t="s">
         <v>56</v>
       </c>
-      <c r="K28" s="444"/>
+      <c r="K28" s="237"/>
       <c r="L28"/>
       <c r="M28" s="239" t="s">
         <v>347</v>
@@ -13009,35 +12994,35 @@
       </c>
     </row>
     <row r="29" spans="2:17" ht="32.25">
-      <c r="B29" s="445">
+      <c r="B29" s="94">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="C29" s="439" t="s">
+      <c r="C29" s="71" t="s">
         <v>192</v>
       </c>
-      <c r="D29" s="440" t="s">
+      <c r="D29" s="32" t="s">
         <v>113</v>
       </c>
-      <c r="E29" s="441" t="s">
+      <c r="E29" s="192" t="s">
         <v>197</v>
       </c>
-      <c r="F29" s="442" t="s">
+      <c r="F29" s="295" t="s">
         <v>498</v>
       </c>
-      <c r="G29" s="452" t="s">
+      <c r="G29" s="219" t="s">
         <v>295</v>
       </c>
-      <c r="H29" s="443" t="s">
+      <c r="H29" s="359" t="s">
         <v>548</v>
       </c>
-      <c r="I29" s="443" t="s">
+      <c r="I29" s="359" t="s">
         <v>113</v>
       </c>
-      <c r="J29" s="444" t="s">
+      <c r="J29" s="237" t="s">
         <v>379</v>
       </c>
-      <c r="K29" s="444"/>
+      <c r="K29" s="237"/>
       <c r="L29"/>
       <c r="M29" s="239"/>
       <c r="N29" s="239"/>
@@ -13050,31 +13035,31 @@
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="C30" s="446" t="s">
+      <c r="C30" s="423" t="s">
         <v>182</v>
       </c>
-      <c r="D30" s="447" t="s">
+      <c r="D30" s="424" t="s">
         <v>61</v>
       </c>
-      <c r="E30" s="448" t="s">
+      <c r="E30" s="425" t="s">
         <v>234</v>
       </c>
-      <c r="F30" s="449" t="s">
+      <c r="F30" s="426" t="s">
         <v>501</v>
       </c>
-      <c r="G30" s="450" t="s">
+      <c r="G30" s="427" t="s">
         <v>234</v>
       </c>
-      <c r="H30" s="451" t="s">
+      <c r="H30" s="428" t="s">
         <v>285</v>
       </c>
-      <c r="I30" s="451" t="s">
+      <c r="I30" s="428" t="s">
         <v>61</v>
       </c>
-      <c r="J30" s="444" t="s">
+      <c r="J30" s="237" t="s">
         <v>376</v>
       </c>
-      <c r="K30" s="460"/>
+      <c r="K30" s="436"/>
       <c r="L30"/>
       <c r="M30" s="239">
         <v>2070</v>
@@ -13091,31 +13076,31 @@
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
-      <c r="C31" s="439" t="s">
+      <c r="C31" s="71" t="s">
         <v>181</v>
       </c>
-      <c r="D31" s="440" t="s">
+      <c r="D31" s="32" t="s">
         <v>119</v>
       </c>
-      <c r="E31" s="441" t="s">
+      <c r="E31" s="192" t="s">
         <v>231</v>
       </c>
-      <c r="F31" s="442" t="s">
+      <c r="F31" s="295" t="s">
         <v>500</v>
       </c>
-      <c r="G31" s="452" t="s">
+      <c r="G31" s="219" t="s">
         <v>203</v>
       </c>
-      <c r="H31" s="443" t="s">
+      <c r="H31" s="359" t="s">
         <v>1451</v>
       </c>
-      <c r="I31" s="443" t="s">
+      <c r="I31" s="359" t="s">
         <v>119</v>
       </c>
-      <c r="J31" s="444" t="s">
+      <c r="J31" s="237" t="s">
         <v>382</v>
       </c>
-      <c r="K31" s="460"/>
+      <c r="K31" s="436"/>
       <c r="L31"/>
       <c r="M31" s="239" t="str">
         <f xml:space="preserve"> _xlfn.UNICHAR(8304)</f>
@@ -13134,31 +13119,31 @@
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="C32" s="439" t="s">
+      <c r="C32" s="71" t="s">
         <v>37</v>
       </c>
-      <c r="D32" s="440" t="s">
+      <c r="D32" s="32" t="s">
         <v>284</v>
       </c>
-      <c r="E32" s="441" t="s">
+      <c r="E32" s="192" t="s">
         <v>65</v>
       </c>
-      <c r="F32" s="442" t="s">
+      <c r="F32" s="295" t="s">
         <v>486</v>
       </c>
-      <c r="G32" s="452" t="s">
+      <c r="G32" s="219" t="s">
         <v>65</v>
       </c>
-      <c r="H32" s="443" t="s">
+      <c r="H32" s="359" t="s">
         <v>546</v>
       </c>
-      <c r="I32" s="443" t="s">
+      <c r="I32" s="359" t="s">
         <v>284</v>
       </c>
-      <c r="J32" s="444" t="s">
+      <c r="J32" s="237" t="s">
         <v>546</v>
       </c>
-      <c r="K32" s="460"/>
+      <c r="K32" s="436"/>
       <c r="L32"/>
       <c r="M32" s="239" t="str">
         <f t="shared" ref="M32:M37" si="3" xml:space="preserve"> _xlfn.UNICHAR(8304)</f>
@@ -13177,31 +13162,31 @@
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
-      <c r="C33" s="439" t="s">
+      <c r="C33" s="71" t="s">
         <v>207</v>
       </c>
-      <c r="D33" s="440" t="s">
+      <c r="D33" s="32" t="s">
         <v>67</v>
       </c>
-      <c r="E33" s="441" t="s">
+      <c r="E33" s="192" t="s">
         <v>201</v>
       </c>
-      <c r="F33" s="442" t="s">
+      <c r="F33" s="295" t="s">
         <v>485</v>
       </c>
-      <c r="G33" s="452" t="s">
+      <c r="G33" s="219" t="s">
         <v>244</v>
       </c>
-      <c r="H33" s="443" t="s">
+      <c r="H33" s="359" t="s">
         <v>545</v>
       </c>
-      <c r="I33" s="443" t="s">
+      <c r="I33" s="359" t="s">
         <v>67</v>
       </c>
-      <c r="J33" s="444" t="s">
+      <c r="J33" s="237" t="s">
         <v>287</v>
       </c>
-      <c r="K33" s="460"/>
+      <c r="K33" s="436"/>
       <c r="L33"/>
       <c r="M33" s="239" t="str">
         <f t="shared" si="3"/>
@@ -13220,31 +13205,31 @@
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="C34" s="439" t="s">
+      <c r="C34" s="71" t="s">
         <v>205</v>
       </c>
-      <c r="D34" s="440" t="s">
+      <c r="D34" s="32" t="s">
         <v>121</v>
       </c>
-      <c r="E34" s="441" t="s">
+      <c r="E34" s="192" t="s">
         <v>319</v>
       </c>
-      <c r="F34" s="442" t="s">
+      <c r="F34" s="295" t="s">
         <v>503</v>
       </c>
-      <c r="G34" s="452" t="s">
+      <c r="G34" s="219" t="s">
         <v>204</v>
       </c>
-      <c r="H34" s="443" t="s">
+      <c r="H34" s="359" t="s">
         <v>558</v>
       </c>
-      <c r="I34" s="443" t="s">
+      <c r="I34" s="359" t="s">
         <v>121</v>
       </c>
-      <c r="J34" s="444" t="s">
+      <c r="J34" s="237" t="s">
         <v>381</v>
       </c>
-      <c r="K34" s="460"/>
+      <c r="K34" s="436"/>
       <c r="L34"/>
       <c r="M34" s="239" t="str">
         <f t="shared" si="3"/>
@@ -13263,31 +13248,31 @@
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
-      <c r="C35" s="446" t="s">
+      <c r="C35" s="423" t="s">
         <v>199</v>
       </c>
-      <c r="D35" s="447" t="s">
+      <c r="D35" s="424" t="s">
         <v>189</v>
       </c>
-      <c r="E35" s="448" t="s">
+      <c r="E35" s="425" t="s">
         <v>343</v>
       </c>
-      <c r="F35" s="442" t="s">
+      <c r="F35" s="295" t="s">
         <v>71</v>
       </c>
-      <c r="G35" s="450" t="s">
+      <c r="G35" s="427" t="s">
         <v>235</v>
       </c>
-      <c r="H35" s="451" t="s">
+      <c r="H35" s="428" t="s">
         <v>189</v>
       </c>
-      <c r="I35" s="451" t="s">
+      <c r="I35" s="428" t="s">
         <v>189</v>
       </c>
-      <c r="J35" s="444" t="s">
+      <c r="J35" s="237" t="s">
         <v>189</v>
       </c>
-      <c r="K35" s="460"/>
+      <c r="K35" s="436"/>
       <c r="L35"/>
       <c r="M35" s="239" t="str">
         <f t="shared" si="3"/>
@@ -13306,31 +13291,31 @@
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
-      <c r="C36" s="439" t="s">
+      <c r="C36" s="71" t="s">
         <v>188</v>
       </c>
-      <c r="D36" s="440" t="s">
+      <c r="D36" s="32" t="s">
         <v>117</v>
       </c>
-      <c r="E36" s="441" t="s">
+      <c r="E36" s="192" t="s">
         <v>278</v>
       </c>
-      <c r="F36" s="442" t="s">
+      <c r="F36" s="295" t="s">
         <v>527</v>
       </c>
-      <c r="G36" s="452" t="s">
+      <c r="G36" s="219" t="s">
         <v>202</v>
       </c>
-      <c r="H36" s="443" t="s">
+      <c r="H36" s="359" t="s">
         <v>550</v>
       </c>
-      <c r="I36" s="443" t="s">
+      <c r="I36" s="359" t="s">
         <v>117</v>
       </c>
-      <c r="J36" s="444" t="s">
+      <c r="J36" s="237" t="s">
         <v>383</v>
       </c>
-      <c r="K36" s="460"/>
+      <c r="K36" s="436"/>
       <c r="L36"/>
       <c r="M36" s="239" t="str">
         <f t="shared" si="3"/>
@@ -13349,31 +13334,31 @@
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
-      <c r="C37" s="439" t="s">
+      <c r="C37" s="71" t="s">
         <v>86</v>
       </c>
-      <c r="D37" s="440" t="s">
+      <c r="D37" s="32" t="s">
         <v>72</v>
       </c>
-      <c r="E37" s="441" t="s">
+      <c r="E37" s="192" t="s">
         <v>237</v>
       </c>
-      <c r="F37" s="442" t="s">
+      <c r="F37" s="295" t="s">
         <v>1467</v>
       </c>
-      <c r="G37" s="452" t="s">
+      <c r="G37" s="219" t="s">
         <v>232</v>
       </c>
-      <c r="H37" s="443" t="s">
+      <c r="H37" s="359" t="s">
         <v>72</v>
       </c>
-      <c r="I37" s="443" t="s">
+      <c r="I37" s="359" t="s">
         <v>72</v>
       </c>
-      <c r="J37" s="444" t="s">
+      <c r="J37" s="237" t="s">
         <v>72</v>
       </c>
-      <c r="K37" s="460"/>
+      <c r="K37" s="436"/>
       <c r="L37"/>
       <c r="M37" s="239" t="str">
         <f t="shared" si="3"/>
@@ -13404,7 +13389,7 @@
       <c r="F38" s="294" t="s">
         <v>528</v>
       </c>
-      <c r="G38" s="461" t="s">
+      <c r="G38" s="437" t="s">
         <v>200</v>
       </c>
       <c r="H38" s="360" t="s">
@@ -13416,7 +13401,7 @@
       <c r="J38" s="266" t="s">
         <v>384</v>
       </c>
-      <c r="K38" s="462"/>
+      <c r="K38" s="438"/>
       <c r="L38"/>
       <c r="M38" s="239"/>
       <c r="N38" s="239"/>
@@ -14776,7 +14761,7 @@
     </row>
   </sheetData>
   <phoneticPr fontId="9" type="noConversion"/>
-  <conditionalFormatting sqref="C57:H60 C62:H67 C3:I54">
+  <conditionalFormatting sqref="C3:I54 C57:H60 C62:H67">
     <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
       <formula>CHAR(32)</formula>
     </cfRule>
@@ -24730,32 +24715,32 @@
   <sheetData>
     <row r="1" spans="2:25" ht="9.9499999999999993" customHeight="1"/>
     <row r="2" spans="2:25" s="344" customFormat="1" ht="45" customHeight="1">
-      <c r="B2" s="422" t="s">
+      <c r="B2" s="443" t="s">
         <v>555</v>
       </c>
-      <c r="C2" s="422"/>
-      <c r="D2" s="422"/>
-      <c r="E2" s="422"/>
-      <c r="F2" s="422"/>
-      <c r="G2" s="422"/>
-      <c r="H2" s="422"/>
-      <c r="I2" s="422"/>
-      <c r="J2" s="422"/>
-      <c r="K2" s="422"/>
-      <c r="L2" s="422"/>
-      <c r="M2" s="422"/>
-      <c r="N2" s="422"/>
-      <c r="O2" s="422"/>
-      <c r="P2" s="422"/>
-      <c r="Q2" s="422"/>
-      <c r="R2" s="422"/>
-      <c r="S2" s="422"/>
-      <c r="T2" s="422"/>
-      <c r="U2" s="422"/>
-      <c r="V2" s="422"/>
-      <c r="W2" s="422"/>
-      <c r="X2" s="422"/>
-      <c r="Y2" s="422"/>
+      <c r="C2" s="443"/>
+      <c r="D2" s="443"/>
+      <c r="E2" s="443"/>
+      <c r="F2" s="443"/>
+      <c r="G2" s="443"/>
+      <c r="H2" s="443"/>
+      <c r="I2" s="443"/>
+      <c r="J2" s="443"/>
+      <c r="K2" s="443"/>
+      <c r="L2" s="443"/>
+      <c r="M2" s="443"/>
+      <c r="N2" s="443"/>
+      <c r="O2" s="443"/>
+      <c r="P2" s="443"/>
+      <c r="Q2" s="443"/>
+      <c r="R2" s="443"/>
+      <c r="S2" s="443"/>
+      <c r="T2" s="443"/>
+      <c r="U2" s="443"/>
+      <c r="V2" s="443"/>
+      <c r="W2" s="443"/>
+      <c r="X2" s="443"/>
+      <c r="Y2" s="443"/>
     </row>
     <row r="3" spans="2:25" ht="45" customHeight="1">
       <c r="B3" s="345" t="str" cm="1">
@@ -24847,121 +24832,121 @@
       <c r="Y3" s="346"/>
     </row>
     <row r="4" spans="2:25" ht="45" customHeight="1">
-      <c r="B4" s="466" t="str" cm="1">
+      <c r="B4" s="442" t="str" cm="1">
         <f t="array" ref="B4" xml:space="preserve"> INDEX(注音編碼對照表!$F$3:$F$54, 注音符號表!B$10, 0)</f>
         <v>p</v>
       </c>
-      <c r="C4" s="466" t="str" cm="1">
+      <c r="C4" s="442" t="str" cm="1">
         <f t="array" ref="C4" xml:space="preserve"> INDEX(注音編碼對照表!$F$3:$F$54, 注音符號表!C$10, 0)</f>
         <v>pʰ</v>
       </c>
-      <c r="D4" s="466" t="str" cm="1">
+      <c r="D4" s="442" t="str" cm="1">
         <f t="array" ref="D4" xml:space="preserve"> INDEX(注音編碼對照表!$F$3:$F$54, 注音符號表!D$10, 0)</f>
         <v>b</v>
       </c>
-      <c r="E4" s="466" t="str" cm="1">
+      <c r="E4" s="442" t="str" cm="1">
         <f t="array" ref="E4" xml:space="preserve"> INDEX(注音編碼對照表!$F$3:$F$54, 注音符號表!E$10, 0)</f>
         <v>m</v>
       </c>
-      <c r="F4" s="466" t="str" cm="1">
+      <c r="F4" s="442" t="str" cm="1">
         <f t="array" ref="F4" xml:space="preserve"> INDEX(注音編碼對照表!$F$3:$F$54, 注音符號表!F$10, 0)</f>
         <v>t</v>
       </c>
-      <c r="G4" s="466" t="str" cm="1">
+      <c r="G4" s="442" t="str" cm="1">
         <f t="array" ref="G4" xml:space="preserve"> INDEX(注音編碼對照表!$F$3:$F$54, 注音符號表!G$10, 0)</f>
         <v>tʰ</v>
       </c>
-      <c r="H4" s="466" t="str" cm="1">
+      <c r="H4" s="442" t="str" cm="1">
         <f t="array" ref="H4" xml:space="preserve"> INDEX(注音編碼對照表!$F$3:$F$54, 注音符號表!H$10, 0)</f>
         <v>n</v>
       </c>
-      <c r="I4" s="466" t="str" cm="1">
+      <c r="I4" s="442" t="str" cm="1">
         <f t="array" ref="I4" xml:space="preserve"> INDEX(注音編碼對照表!$F$3:$F$54, 注音符號表!I$10, 0)</f>
         <v>l</v>
       </c>
-      <c r="J4" s="466" t="str" cm="1">
+      <c r="J4" s="442" t="str" cm="1">
         <f t="array" ref="J4" xml:space="preserve"> INDEX(注音編碼對照表!$F$3:$F$54, 注音符號表!J$10, 0)</f>
         <v>ts</v>
       </c>
-      <c r="K4" s="466" t="str" cm="1">
+      <c r="K4" s="442" t="str" cm="1">
         <f t="array" ref="K4" xml:space="preserve"> INDEX(注音編碼對照表!$F$3:$F$54, 注音符號表!K$10, 0)</f>
         <v>ʦʰ</v>
       </c>
-      <c r="L4" s="466" t="str" cm="1">
+      <c r="L4" s="442" t="str" cm="1">
         <f t="array" ref="L4" xml:space="preserve"> INDEX(注音編碼對照表!$F$3:$F$54, 注音符號表!L$10, 0)</f>
         <v>ʣ</v>
       </c>
-      <c r="M4" s="466" t="str" cm="1">
+      <c r="M4" s="442" t="str" cm="1">
         <f t="array" ref="M4" xml:space="preserve"> INDEX(注音編碼對照表!$F$3:$F$54, 注音符號表!M$10, 0)</f>
         <v>s</v>
       </c>
-      <c r="N4" s="466" t="str" cm="1">
+      <c r="N4" s="442" t="str" cm="1">
         <f t="array" ref="N4" xml:space="preserve"> INDEX(注音編碼對照表!$F$3:$F$54, 注音符號表!N$10, 0)</f>
         <v>ʨ</v>
       </c>
-      <c r="O4" s="466" t="str" cm="1">
+      <c r="O4" s="442" t="str" cm="1">
         <f t="array" ref="O4" xml:space="preserve"> INDEX(注音編碼對照表!$F$3:$F$54, 注音符號表!O$10, 0)</f>
         <v>ʨʰ</v>
       </c>
-      <c r="P4" s="466" t="str" cm="1">
+      <c r="P4" s="442" t="str" cm="1">
         <f t="array" ref="P4" xml:space="preserve"> INDEX(注音編碼對照表!$F$3:$F$54, 注音符號表!P$10, 0)</f>
         <v>ʥ</v>
       </c>
-      <c r="Q4" s="466" t="str" cm="1">
+      <c r="Q4" s="442" t="str" cm="1">
         <f t="array" ref="Q4" xml:space="preserve"> INDEX(注音編碼對照表!$F$3:$F$54, 注音符號表!Q$10, 0)</f>
         <v>ɕ</v>
       </c>
-      <c r="R4" s="466" t="str" cm="1">
+      <c r="R4" s="442" t="str" cm="1">
         <f t="array" ref="R4" xml:space="preserve"> INDEX(注音編碼對照表!$F$3:$F$54, 注音符號表!R$10, 0)</f>
         <v>k</v>
       </c>
-      <c r="S4" s="466" t="str" cm="1">
+      <c r="S4" s="442" t="str" cm="1">
         <f t="array" ref="S4" xml:space="preserve"> INDEX(注音編碼對照表!$F$3:$F$54, 注音符號表!S$10, 0)</f>
         <v>kʰ</v>
       </c>
-      <c r="T4" s="466" t="str" cm="1">
+      <c r="T4" s="442" t="str" cm="1">
         <f t="array" ref="T4" xml:space="preserve"> INDEX(注音編碼對照表!$F$3:$F$54, 注音符號表!T$10, 0)</f>
         <v>g</v>
       </c>
-      <c r="U4" s="466" t="str" cm="1">
+      <c r="U4" s="442" t="str" cm="1">
         <f t="array" ref="U4" xml:space="preserve"> INDEX(注音編碼對照表!$F$3:$F$54, 注音符號表!U$10, 0)</f>
         <v>ŋ</v>
       </c>
-      <c r="V4" s="466" t="str" cm="1">
+      <c r="V4" s="442" t="str" cm="1">
         <f t="array" ref="V4" xml:space="preserve"> INDEX(注音編碼對照表!$F$3:$F$54, 注音符號表!V$10, 0)</f>
         <v>h</v>
       </c>
-      <c r="W4" s="466"/>
-      <c r="X4" s="466"/>
-      <c r="Y4" s="466"/>
+      <c r="W4" s="442"/>
+      <c r="X4" s="442"/>
+      <c r="Y4" s="442"/>
     </row>
     <row r="5" spans="2:25" s="344" customFormat="1" ht="45" customHeight="1">
-      <c r="B5" s="422" t="s">
+      <c r="B5" s="443" t="s">
         <v>556</v>
       </c>
-      <c r="C5" s="422"/>
-      <c r="D5" s="422"/>
-      <c r="E5" s="422"/>
-      <c r="F5" s="422"/>
-      <c r="G5" s="422"/>
-      <c r="H5" s="422"/>
-      <c r="I5" s="422"/>
-      <c r="J5" s="422"/>
-      <c r="K5" s="422"/>
-      <c r="L5" s="422"/>
-      <c r="M5" s="422"/>
-      <c r="N5" s="422"/>
-      <c r="O5" s="422"/>
-      <c r="P5" s="422"/>
-      <c r="Q5" s="422"/>
-      <c r="R5" s="422"/>
-      <c r="S5" s="422"/>
-      <c r="T5" s="422"/>
-      <c r="U5" s="422"/>
-      <c r="V5" s="422"/>
-      <c r="W5" s="422"/>
-      <c r="X5" s="422"/>
-      <c r="Y5" s="422"/>
+      <c r="C5" s="443"/>
+      <c r="D5" s="443"/>
+      <c r="E5" s="443"/>
+      <c r="F5" s="443"/>
+      <c r="G5" s="443"/>
+      <c r="H5" s="443"/>
+      <c r="I5" s="443"/>
+      <c r="J5" s="443"/>
+      <c r="K5" s="443"/>
+      <c r="L5" s="443"/>
+      <c r="M5" s="443"/>
+      <c r="N5" s="443"/>
+      <c r="O5" s="443"/>
+      <c r="P5" s="443"/>
+      <c r="Q5" s="443"/>
+      <c r="R5" s="443"/>
+      <c r="S5" s="443"/>
+      <c r="T5" s="443"/>
+      <c r="U5" s="443"/>
+      <c r="V5" s="443"/>
+      <c r="W5" s="443"/>
+      <c r="X5" s="443"/>
+      <c r="Y5" s="443"/>
     </row>
     <row r="6" spans="2:25" ht="45" customHeight="1">
       <c r="B6" s="345" t="str" cm="1">
@@ -25062,273 +25047,273 @@
       </c>
     </row>
     <row r="7" spans="2:25" ht="45" customHeight="1">
-      <c r="B7" s="466" t="str" cm="1">
+      <c r="B7" s="442" t="str" cm="1">
         <f t="array" ref="B7" xml:space="preserve"> INDEX(注音編碼對照表!$F$3:$F$54, 注音符號表!B$11, 0)</f>
         <v>a</v>
       </c>
-      <c r="C7" s="466" t="str" cm="1">
+      <c r="C7" s="442" t="str" cm="1">
         <f t="array" ref="C7" xml:space="preserve"> INDEX(注音編碼對照表!$F$3:$F$54, 注音符號表!C$11, 0)</f>
         <v>ã</v>
       </c>
-      <c r="D7" s="466" t="str" cm="1">
+      <c r="D7" s="442" t="str" cm="1">
         <f t="array" ref="D7" xml:space="preserve"> INDEX(注音編碼對照表!$F$3:$F$54, 注音符號表!D$11, 0)</f>
         <v>i</v>
       </c>
-      <c r="E7" s="466" t="str" cm="1">
+      <c r="E7" s="442" t="str" cm="1">
         <f t="array" ref="E7" xml:space="preserve"> INDEX(注音編碼對照表!$F$3:$F$54, 注音符號表!E$11, 0)</f>
         <v>ĩ</v>
       </c>
-      <c r="F7" s="466" t="str" cm="1">
+      <c r="F7" s="442" t="str" cm="1">
         <f t="array" ref="F7" xml:space="preserve"> INDEX(注音編碼對照表!$F$3:$F$54, 注音符號表!F$11, 0)</f>
         <v>u</v>
       </c>
-      <c r="G7" s="466" t="str" cm="1">
+      <c r="G7" s="442" t="str" cm="1">
         <f t="array" ref="G7" xml:space="preserve"> INDEX(注音編碼對照表!$F$3:$F$54, 注音符號表!G$11, 0)</f>
         <v>ũ</v>
       </c>
-      <c r="H7" s="466" t="str" cm="1">
+      <c r="H7" s="442" t="str" cm="1">
         <f t="array" ref="H7" xml:space="preserve"> INDEX(注音編碼對照表!$F$3:$F$54, 注音符號表!H$11, 0)</f>
         <v>e</v>
       </c>
-      <c r="I7" s="466" t="str" cm="1">
+      <c r="I7" s="442" t="str" cm="1">
         <f t="array" ref="I7" xml:space="preserve"> INDEX(注音編碼對照表!$F$3:$F$54, 注音符號表!I$11, 0)</f>
         <v>ẽ</v>
       </c>
-      <c r="J7" s="466" t="str" cm="1">
+      <c r="J7" s="442" t="str" cm="1">
         <f t="array" ref="J7" xml:space="preserve"> INDEX(注音編碼對照表!$F$3:$F$54, 注音符號表!J$11, 0)</f>
         <v>ə</v>
       </c>
-      <c r="K7" s="466" t="str" cm="1">
+      <c r="K7" s="442" t="str" cm="1">
         <f t="array" ref="K7" xml:space="preserve"> INDEX(注音編碼對照表!$F$3:$F$54, 注音符號表!K$11, 0)</f>
         <v>ɔ</v>
       </c>
-      <c r="L7" s="466" t="str" cm="1">
+      <c r="L7" s="442" t="str" cm="1">
         <f t="array" ref="L7" xml:space="preserve"> INDEX(注音編碼對照表!$F$3:$F$54, 注音符號表!L$11, 0)</f>
         <v>ɔ̃</v>
       </c>
-      <c r="M7" s="466" t="str" cm="1">
+      <c r="M7" s="442" t="str" cm="1">
         <f t="array" ref="M7" xml:space="preserve"> INDEX(注音編碼對照表!$F$3:$F$54, 注音符號表!M$11, 0)</f>
         <v>ai</v>
       </c>
-      <c r="N7" s="466" t="str" cm="1">
+      <c r="N7" s="442" t="str" cm="1">
         <f t="array" ref="N7" xml:space="preserve"> INDEX(注音編碼對照表!$F$3:$F$54, 注音符號表!N$11, 0)</f>
         <v>ãĩ</v>
       </c>
-      <c r="O7" s="466" t="str" cm="1">
+      <c r="O7" s="442" t="str" cm="1">
         <f t="array" ref="O7" xml:space="preserve"> INDEX(注音編碼對照表!$F$3:$F$54, 注音符號表!O$11, 0)</f>
         <v>ɑu</v>
       </c>
-      <c r="P7" s="466" t="str" cm="1">
+      <c r="P7" s="442" t="str" cm="1">
         <f t="array" ref="P7" xml:space="preserve"> INDEX(注音編碼對照表!$F$3:$F$54, 注音符號表!P$11, 0)</f>
         <v>ãũ</v>
       </c>
-      <c r="Q7" s="466" t="str" cm="1">
+      <c r="Q7" s="442" t="str" cm="1">
         <f t="array" ref="Q7" xml:space="preserve"> INDEX(注音編碼對照表!$F$3:$F$54, 注音符號表!Q$11, 0)</f>
         <v>ɨ</v>
       </c>
-      <c r="R7" s="466" t="str" cm="1">
+      <c r="R7" s="442" t="str" cm="1">
         <f t="array" ref="R7" xml:space="preserve"> INDEX(注音編碼對照表!$F$3:$F$54, 注音符號表!R$11, 0)</f>
         <v>am</v>
       </c>
-      <c r="S7" s="466" t="str" cm="1">
+      <c r="S7" s="442" t="str" cm="1">
         <f t="array" ref="S7" xml:space="preserve"> INDEX(注音編碼對照表!$F$3:$F$54, 注音符號表!S$11, 0)</f>
         <v>ɔm</v>
       </c>
-      <c r="T7" s="466" t="str" cm="1">
+      <c r="T7" s="442" t="str" cm="1">
         <f t="array" ref="T7" xml:space="preserve"> INDEX(注音編碼對照表!$F$3:$F$54, 注音符號表!T$11, 0)</f>
         <v>m̩</v>
       </c>
-      <c r="U7" s="466" t="str" cm="1">
+      <c r="U7" s="442" t="str" cm="1">
         <f t="array" ref="U7" xml:space="preserve"> INDEX(注音編碼對照表!$F$3:$F$54, 注音符號表!U$11, 0)</f>
         <v>an</v>
       </c>
-      <c r="V7" s="466" t="str" cm="1">
+      <c r="V7" s="442" t="str" cm="1">
         <f t="array" ref="V7" xml:space="preserve"> INDEX(注音編碼對照表!$F$3:$F$54, 注音符號表!V$11, 0)</f>
         <v>n</v>
       </c>
-      <c r="W7" s="466" t="str" cm="1">
+      <c r="W7" s="442" t="str" cm="1">
         <f t="array" ref="W7" xml:space="preserve"> INDEX(注音編碼對照表!$F$3:$F$54, 注音符號表!W$11, 0)</f>
         <v>ɑŋ</v>
       </c>
-      <c r="X7" s="466" t="str" cm="1">
+      <c r="X7" s="442" t="str" cm="1">
         <f t="array" ref="X7" xml:space="preserve"> INDEX(注音編碼對照表!$F$3:$F$54, 注音符號表!X$11, 0)</f>
         <v>ɔŋ</v>
       </c>
-      <c r="Y7" s="466" t="str" cm="1">
+      <c r="Y7" s="442" t="str" cm="1">
         <f t="array" ref="Y7" xml:space="preserve"> INDEX(注音編碼對照表!$F$3:$F$54, 注音符號表!Y$11, 0)</f>
         <v>ŋ̍</v>
       </c>
     </row>
     <row r="8" spans="2:25" ht="9.9499999999999993" customHeight="1"/>
     <row r="10" spans="2:25">
-      <c r="B10" s="438" cm="1">
+      <c r="B10" s="422" cm="1">
         <f t="array" ref="B10" xml:space="preserve"> COLUMN() - COLUMN($A:$A)</f>
         <v>1</v>
       </c>
-      <c r="C10" s="438" cm="1">
+      <c r="C10" s="422" cm="1">
         <f t="array" ref="C10" xml:space="preserve"> COLUMN() - COLUMN($A:$A)</f>
         <v>2</v>
       </c>
-      <c r="D10" s="438" cm="1">
+      <c r="D10" s="422" cm="1">
         <f t="array" ref="D10" xml:space="preserve"> COLUMN() - COLUMN($A:$A)</f>
         <v>3</v>
       </c>
-      <c r="E10" s="438" cm="1">
+      <c r="E10" s="422" cm="1">
         <f t="array" ref="E10" xml:space="preserve"> COLUMN() - COLUMN($A:$A)</f>
         <v>4</v>
       </c>
-      <c r="F10" s="438" cm="1">
+      <c r="F10" s="422" cm="1">
         <f t="array" ref="F10" xml:space="preserve"> COLUMN() - COLUMN($A:$A)</f>
         <v>5</v>
       </c>
-      <c r="G10" s="438" cm="1">
+      <c r="G10" s="422" cm="1">
         <f t="array" ref="G10" xml:space="preserve"> COLUMN() - COLUMN($A:$A)</f>
         <v>6</v>
       </c>
-      <c r="H10" s="438" cm="1">
+      <c r="H10" s="422" cm="1">
         <f t="array" ref="H10" xml:space="preserve"> COLUMN() - COLUMN($A:$A)</f>
         <v>7</v>
       </c>
-      <c r="I10" s="438" cm="1">
+      <c r="I10" s="422" cm="1">
         <f t="array" ref="I10" xml:space="preserve"> COLUMN() - COLUMN($A:$A)</f>
         <v>8</v>
       </c>
-      <c r="J10" s="438" cm="1">
+      <c r="J10" s="422" cm="1">
         <f t="array" ref="J10" xml:space="preserve"> COLUMN() - COLUMN($A:$A)</f>
         <v>9</v>
       </c>
-      <c r="K10" s="438" cm="1">
+      <c r="K10" s="422" cm="1">
         <f t="array" ref="K10" xml:space="preserve"> COLUMN() - COLUMN($A:$A)</f>
         <v>10</v>
       </c>
-      <c r="L10" s="438" cm="1">
+      <c r="L10" s="422" cm="1">
         <f t="array" ref="L10" xml:space="preserve"> COLUMN() - COLUMN($A:$A)</f>
         <v>11</v>
       </c>
-      <c r="M10" s="438" cm="1">
+      <c r="M10" s="422" cm="1">
         <f t="array" ref="M10" xml:space="preserve"> COLUMN() - COLUMN($A:$A)</f>
         <v>12</v>
       </c>
-      <c r="N10" s="438" cm="1">
+      <c r="N10" s="422" cm="1">
         <f t="array" ref="N10" xml:space="preserve"> COLUMN() - COLUMN($A:$A)</f>
         <v>13</v>
       </c>
-      <c r="O10" s="438" cm="1">
+      <c r="O10" s="422" cm="1">
         <f t="array" ref="O10" xml:space="preserve"> COLUMN() - COLUMN($A:$A)</f>
         <v>14</v>
       </c>
-      <c r="P10" s="438" cm="1">
+      <c r="P10" s="422" cm="1">
         <f t="array" ref="P10" xml:space="preserve"> COLUMN() - COLUMN($A:$A)</f>
         <v>15</v>
       </c>
-      <c r="Q10" s="438" cm="1">
+      <c r="Q10" s="422" cm="1">
         <f t="array" ref="Q10" xml:space="preserve"> COLUMN() - COLUMN($A:$A)</f>
         <v>16</v>
       </c>
-      <c r="R10" s="438" cm="1">
+      <c r="R10" s="422" cm="1">
         <f t="array" ref="R10" xml:space="preserve"> COLUMN() - COLUMN($A:$A)</f>
         <v>17</v>
       </c>
-      <c r="S10" s="438" cm="1">
+      <c r="S10" s="422" cm="1">
         <f t="array" ref="S10" xml:space="preserve"> COLUMN() - COLUMN($A:$A)</f>
         <v>18</v>
       </c>
-      <c r="T10" s="438" cm="1">
+      <c r="T10" s="422" cm="1">
         <f t="array" ref="T10" xml:space="preserve"> COLUMN() - COLUMN($A:$A)</f>
         <v>19</v>
       </c>
-      <c r="U10" s="438" cm="1">
+      <c r="U10" s="422" cm="1">
         <f t="array" ref="U10" xml:space="preserve"> COLUMN() - COLUMN($A:$A)</f>
         <v>20</v>
       </c>
-      <c r="V10" s="438" cm="1">
+      <c r="V10" s="422" cm="1">
         <f t="array" ref="V10" xml:space="preserve"> COLUMN() - COLUMN($A:$A)</f>
         <v>21</v>
       </c>
-      <c r="W10" s="438" cm="1">
+      <c r="W10" s="422" cm="1">
         <f t="array" ref="W10" xml:space="preserve"> COLUMN() - COLUMN($A:$A)</f>
         <v>22</v>
       </c>
-      <c r="X10" s="438" cm="1">
+      <c r="X10" s="422" cm="1">
         <f t="array" ref="X10" xml:space="preserve"> COLUMN() - COLUMN($A:$A)</f>
         <v>23</v>
       </c>
-      <c r="Y10" s="438" cm="1">
+      <c r="Y10" s="422" cm="1">
         <f t="array" ref="Y10" xml:space="preserve"> COLUMN() - COLUMN($A:$A)</f>
         <v>24</v>
       </c>
     </row>
     <row r="11" spans="2:25">
-      <c r="B11" s="438">
+      <c r="B11" s="422">
         <v>22</v>
       </c>
-      <c r="C11" s="438">
+      <c r="C11" s="422">
         <v>23</v>
       </c>
-      <c r="D11" s="438">
+      <c r="D11" s="422">
         <v>24</v>
       </c>
-      <c r="E11" s="438">
+      <c r="E11" s="422">
         <v>25</v>
       </c>
-      <c r="F11" s="438">
+      <c r="F11" s="422">
         <v>26</v>
       </c>
-      <c r="G11" s="438">
+      <c r="G11" s="422">
         <v>27</v>
       </c>
-      <c r="H11" s="438">
+      <c r="H11" s="422">
         <v>28</v>
       </c>
-      <c r="I11" s="438">
+      <c r="I11" s="422">
         <v>29</v>
       </c>
-      <c r="J11" s="438">
+      <c r="J11" s="422">
         <v>30</v>
       </c>
-      <c r="K11" s="438">
+      <c r="K11" s="422">
         <v>31</v>
       </c>
-      <c r="L11" s="438">
+      <c r="L11" s="422">
         <v>32</v>
       </c>
-      <c r="M11" s="438">
+      <c r="M11" s="422">
         <v>33</v>
       </c>
-      <c r="N11" s="438">
+      <c r="N11" s="422">
         <v>34</v>
       </c>
-      <c r="O11" s="438">
+      <c r="O11" s="422">
         <v>35</v>
       </c>
-      <c r="P11" s="438">
+      <c r="P11" s="422">
         <v>36</v>
       </c>
-      <c r="Q11" s="438">
+      <c r="Q11" s="422">
         <v>37</v>
       </c>
-      <c r="R11" s="438">
+      <c r="R11" s="422">
         <v>38</v>
       </c>
-      <c r="S11" s="438">
+      <c r="S11" s="422">
         <v>39</v>
       </c>
-      <c r="T11" s="438">
+      <c r="T11" s="422">
         <v>40</v>
       </c>
-      <c r="U11" s="438">
+      <c r="U11" s="422">
         <v>41</v>
       </c>
-      <c r="V11" s="438">
+      <c r="V11" s="422">
         <v>42</v>
       </c>
-      <c r="W11" s="438">
+      <c r="W11" s="422">
         <v>43</v>
       </c>
-      <c r="X11" s="438">
+      <c r="X11" s="422">
         <v>44</v>
       </c>
-      <c r="Y11" s="438">
+      <c r="Y11" s="422">
         <v>45</v>
       </c>
     </row>
@@ -25349,8 +25334,8 @@
   </sheetPr>
   <dimension ref="A1:CH69"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="BJ4" sqref="BJ4:BJ55"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.19921875" defaultRowHeight="27.75"/>
@@ -25421,66 +25406,66 @@
     </row>
     <row r="2" spans="1:72" s="103" customFormat="1" ht="45" customHeight="1">
       <c r="A2" s="115"/>
-      <c r="B2" s="429" t="s">
+      <c r="B2" s="447" t="s">
         <v>301</v>
       </c>
-      <c r="C2" s="430"/>
-      <c r="D2" s="431"/>
-      <c r="E2" s="429" t="s">
+      <c r="C2" s="448"/>
+      <c r="D2" s="449"/>
+      <c r="E2" s="447" t="s">
         <v>302</v>
       </c>
-      <c r="F2" s="430"/>
-      <c r="G2" s="431"/>
-      <c r="H2" s="432" t="s">
+      <c r="F2" s="448"/>
+      <c r="G2" s="449"/>
+      <c r="H2" s="450" t="s">
         <v>303</v>
       </c>
-      <c r="I2" s="433"/>
-      <c r="J2" s="434"/>
-      <c r="K2" s="432" t="s">
+      <c r="I2" s="451"/>
+      <c r="J2" s="452"/>
+      <c r="K2" s="450" t="s">
         <v>304</v>
       </c>
-      <c r="L2" s="433"/>
-      <c r="M2" s="434"/>
-      <c r="N2" s="435">
+      <c r="L2" s="451"/>
+      <c r="M2" s="452"/>
+      <c r="N2" s="453">
         <v>0.05</v>
       </c>
-      <c r="O2" s="436"/>
-      <c r="P2" s="437"/>
-      <c r="Q2" s="432" t="s">
+      <c r="O2" s="454"/>
+      <c r="P2" s="455"/>
+      <c r="Q2" s="450" t="s">
         <v>305</v>
       </c>
-      <c r="R2" s="433"/>
-      <c r="S2" s="434"/>
-      <c r="T2" s="432" t="s">
+      <c r="R2" s="451"/>
+      <c r="S2" s="452"/>
+      <c r="T2" s="450" t="s">
         <v>306</v>
       </c>
-      <c r="U2" s="433"/>
-      <c r="V2" s="434"/>
-      <c r="W2" s="423" t="s">
+      <c r="U2" s="451"/>
+      <c r="V2" s="452"/>
+      <c r="W2" s="456" t="s">
         <v>307</v>
       </c>
-      <c r="X2" s="424"/>
-      <c r="Y2" s="425"/>
-      <c r="Z2" s="423" t="s">
+      <c r="X2" s="457"/>
+      <c r="Y2" s="458"/>
+      <c r="Z2" s="456" t="s">
         <v>308</v>
       </c>
-      <c r="AA2" s="424"/>
-      <c r="AB2" s="425"/>
-      <c r="AC2" s="423" t="s">
+      <c r="AA2" s="457"/>
+      <c r="AB2" s="458"/>
+      <c r="AC2" s="456" t="s">
         <v>309</v>
       </c>
-      <c r="AD2" s="424"/>
-      <c r="AE2" s="425"/>
-      <c r="AF2" s="426" t="s">
+      <c r="AD2" s="457"/>
+      <c r="AE2" s="458"/>
+      <c r="AF2" s="444" t="s">
         <v>310</v>
       </c>
-      <c r="AG2" s="427"/>
-      <c r="AH2" s="428"/>
-      <c r="AI2" s="426" t="s">
+      <c r="AG2" s="445"/>
+      <c r="AH2" s="446"/>
+      <c r="AI2" s="444" t="s">
         <v>311</v>
       </c>
-      <c r="AJ2" s="427"/>
-      <c r="AK2" s="428"/>
+      <c r="AJ2" s="445"/>
+      <c r="AK2" s="446"/>
       <c r="AL2" s="115"/>
       <c r="AM2" s="115"/>
       <c r="AN2" s="115"/>
@@ -25612,43 +25597,43 @@
       <c r="G4" s="132" t="s">
         <v>241</v>
       </c>
-      <c r="H4" s="469" t="str">
+      <c r="H4" s="459" t="str">
         <f ca="1">BA19</f>
         <v>˪</v>
       </c>
-      <c r="I4" s="470"/>
+      <c r="I4" s="460"/>
       <c r="J4" s="133" t="s">
         <v>314</v>
       </c>
-      <c r="K4" s="469" t="str">
+      <c r="K4" s="459" t="str">
         <f ca="1">AZ19</f>
         <v>ˋ</v>
       </c>
-      <c r="L4" s="470"/>
+      <c r="L4" s="460"/>
       <c r="M4" s="133" t="s">
         <v>315</v>
       </c>
-      <c r="N4" s="467" t="str">
+      <c r="N4" s="461" t="str">
         <f ca="1" xml:space="preserve"> BB19</f>
         <v>˫</v>
       </c>
-      <c r="O4" s="468"/>
+      <c r="O4" s="462"/>
       <c r="P4" s="133" t="s">
         <v>316</v>
       </c>
-      <c r="Q4" s="469" t="str">
+      <c r="Q4" s="459" t="str">
         <f ca="1" xml:space="preserve"> AY19</f>
         <v>ˊ</v>
       </c>
-      <c r="R4" s="470"/>
+      <c r="R4" s="460"/>
       <c r="S4" s="133" t="s">
         <v>317</v>
       </c>
-      <c r="T4" s="469" t="str">
+      <c r="T4" s="459" t="str">
         <f ca="1">BC19</f>
         <v>˙</v>
       </c>
-      <c r="U4" s="470"/>
+      <c r="U4" s="460"/>
       <c r="V4" s="133" t="s">
         <v>318</v>
       </c>
@@ -25746,71 +25731,71 @@
     <row r="5" spans="1:72" s="103" customFormat="1" ht="45" customHeight="1">
       <c r="A5" s="115"/>
       <c r="B5" s="115"/>
-      <c r="C5" s="429" t="s">
+      <c r="C5" s="447" t="s">
         <v>319</v>
       </c>
-      <c r="D5" s="430"/>
-      <c r="E5" s="431"/>
-      <c r="F5" s="429" t="s">
+      <c r="D5" s="448"/>
+      <c r="E5" s="449"/>
+      <c r="F5" s="447" t="s">
         <v>320</v>
       </c>
-      <c r="G5" s="430"/>
-      <c r="H5" s="431"/>
-      <c r="I5" s="429" t="s">
+      <c r="G5" s="448"/>
+      <c r="H5" s="449"/>
+      <c r="I5" s="447" t="s">
         <v>231</v>
       </c>
-      <c r="J5" s="430"/>
-      <c r="K5" s="431"/>
-      <c r="L5" s="429" t="s">
+      <c r="J5" s="448"/>
+      <c r="K5" s="449"/>
+      <c r="L5" s="447" t="s">
         <v>321</v>
       </c>
-      <c r="M5" s="430"/>
-      <c r="N5" s="431"/>
-      <c r="O5" s="429" t="s">
+      <c r="M5" s="448"/>
+      <c r="N5" s="449"/>
+      <c r="O5" s="447" t="s">
         <v>269</v>
       </c>
-      <c r="P5" s="430"/>
-      <c r="Q5" s="431"/>
-      <c r="R5" s="429" t="s">
+      <c r="P5" s="448"/>
+      <c r="Q5" s="449"/>
+      <c r="R5" s="447" t="s">
         <v>278</v>
       </c>
-      <c r="S5" s="430"/>
-      <c r="T5" s="431"/>
-      <c r="U5" s="423" t="s">
+      <c r="S5" s="448"/>
+      <c r="T5" s="449"/>
+      <c r="U5" s="456" t="s">
         <v>197</v>
       </c>
-      <c r="V5" s="424"/>
-      <c r="W5" s="425"/>
-      <c r="X5" s="423" t="s">
+      <c r="V5" s="457"/>
+      <c r="W5" s="458"/>
+      <c r="X5" s="456" t="s">
         <v>205</v>
       </c>
-      <c r="Y5" s="424"/>
-      <c r="Z5" s="425"/>
-      <c r="AA5" s="423" t="s">
+      <c r="Y5" s="457"/>
+      <c r="Z5" s="458"/>
+      <c r="AA5" s="456" t="s">
         <v>201</v>
       </c>
-      <c r="AB5" s="424"/>
-      <c r="AC5" s="425"/>
-      <c r="AD5" s="423" t="s">
+      <c r="AB5" s="457"/>
+      <c r="AC5" s="458"/>
+      <c r="AD5" s="456" t="s">
         <v>267</v>
       </c>
-      <c r="AE5" s="424"/>
-      <c r="AF5" s="425"/>
-      <c r="AG5" s="423" t="s">
+      <c r="AE5" s="457"/>
+      <c r="AF5" s="458"/>
+      <c r="AG5" s="456" t="s">
         <v>322</v>
       </c>
-      <c r="AH5" s="424"/>
-      <c r="AI5" s="425"/>
-      <c r="AJ5" s="423" t="s">
+      <c r="AH5" s="457"/>
+      <c r="AI5" s="458"/>
+      <c r="AJ5" s="456" t="s">
         <v>323</v>
       </c>
-      <c r="AK5" s="424"/>
-      <c r="AL5" s="425"/>
-      <c r="AM5" s="426" t="s">
+      <c r="AK5" s="457"/>
+      <c r="AL5" s="458"/>
+      <c r="AM5" s="444" t="s">
         <v>324</v>
       </c>
-      <c r="AN5" s="427"/>
-      <c r="AO5" s="428"/>
+      <c r="AN5" s="445"/>
+      <c r="AO5" s="446"/>
       <c r="AP5" s="115"/>
       <c r="AQ5" s="115"/>
       <c r="AR5" s="116"/>
@@ -26113,61 +26098,61 @@
       <c r="A8" s="115"/>
       <c r="B8" s="115"/>
       <c r="C8" s="139"/>
-      <c r="D8" s="429" t="s">
+      <c r="D8" s="447" t="s">
         <v>268</v>
       </c>
-      <c r="E8" s="430"/>
-      <c r="F8" s="431"/>
-      <c r="G8" s="429" t="s">
+      <c r="E8" s="448"/>
+      <c r="F8" s="449"/>
+      <c r="G8" s="447" t="s">
         <v>282</v>
       </c>
-      <c r="H8" s="430"/>
-      <c r="I8" s="431"/>
-      <c r="J8" s="429" t="s">
+      <c r="H8" s="448"/>
+      <c r="I8" s="449"/>
+      <c r="J8" s="447" t="s">
         <v>164</v>
       </c>
-      <c r="K8" s="430"/>
-      <c r="L8" s="431"/>
-      <c r="M8" s="429" t="s">
+      <c r="K8" s="448"/>
+      <c r="L8" s="449"/>
+      <c r="M8" s="447" t="s">
         <v>325</v>
       </c>
-      <c r="N8" s="430"/>
-      <c r="O8" s="431"/>
-      <c r="P8" s="429" t="s">
+      <c r="N8" s="448"/>
+      <c r="O8" s="449"/>
+      <c r="P8" s="447" t="s">
         <v>140</v>
       </c>
-      <c r="Q8" s="430"/>
-      <c r="R8" s="431"/>
-      <c r="S8" s="429" t="s">
+      <c r="Q8" s="448"/>
+      <c r="R8" s="449"/>
+      <c r="S8" s="447" t="s">
         <v>280</v>
       </c>
-      <c r="T8" s="430"/>
-      <c r="U8" s="431"/>
-      <c r="V8" s="423" t="s">
+      <c r="T8" s="448"/>
+      <c r="U8" s="449"/>
+      <c r="V8" s="456" t="s">
         <v>192</v>
       </c>
-      <c r="W8" s="424"/>
-      <c r="X8" s="425"/>
-      <c r="Y8" s="423" t="s">
+      <c r="W8" s="457"/>
+      <c r="X8" s="458"/>
+      <c r="Y8" s="456" t="s">
         <v>273</v>
       </c>
-      <c r="Z8" s="424"/>
-      <c r="AA8" s="425"/>
-      <c r="AB8" s="423" t="s">
+      <c r="Z8" s="457"/>
+      <c r="AA8" s="458"/>
+      <c r="AB8" s="456" t="s">
         <v>186</v>
       </c>
-      <c r="AC8" s="424"/>
-      <c r="AD8" s="425"/>
-      <c r="AE8" s="423" t="s">
+      <c r="AC8" s="457"/>
+      <c r="AD8" s="458"/>
+      <c r="AE8" s="456" t="s">
         <v>326</v>
       </c>
-      <c r="AF8" s="424"/>
-      <c r="AG8" s="425"/>
-      <c r="AH8" s="426" t="s">
+      <c r="AF8" s="457"/>
+      <c r="AG8" s="458"/>
+      <c r="AH8" s="444" t="s">
         <v>327</v>
       </c>
-      <c r="AI8" s="427"/>
-      <c r="AJ8" s="428"/>
+      <c r="AI8" s="445"/>
+      <c r="AJ8" s="446"/>
       <c r="AK8" s="115"/>
       <c r="AL8" s="115"/>
       <c r="AM8" s="115"/>
@@ -26475,56 +26460,56 @@
       <c r="B11" s="115"/>
       <c r="C11" s="115"/>
       <c r="D11" s="115"/>
-      <c r="E11" s="429" t="s">
+      <c r="E11" s="447" t="s">
         <v>279</v>
       </c>
-      <c r="F11" s="430"/>
-      <c r="G11" s="431"/>
-      <c r="H11" s="429" t="s">
+      <c r="F11" s="448"/>
+      <c r="G11" s="449"/>
+      <c r="H11" s="447" t="s">
         <v>328</v>
       </c>
-      <c r="I11" s="430"/>
-      <c r="J11" s="431"/>
-      <c r="K11" s="429" t="s">
+      <c r="I11" s="448"/>
+      <c r="J11" s="449"/>
+      <c r="K11" s="447" t="s">
         <v>281</v>
       </c>
-      <c r="L11" s="430"/>
-      <c r="M11" s="431"/>
-      <c r="N11" s="429" t="s">
+      <c r="L11" s="448"/>
+      <c r="M11" s="449"/>
+      <c r="N11" s="447" t="s">
         <v>329</v>
       </c>
-      <c r="O11" s="430"/>
-      <c r="P11" s="431"/>
-      <c r="Q11" s="429" t="s">
+      <c r="O11" s="448"/>
+      <c r="P11" s="449"/>
+      <c r="Q11" s="447" t="s">
         <v>143</v>
       </c>
-      <c r="R11" s="430"/>
-      <c r="S11" s="431"/>
-      <c r="T11" s="429" t="s">
+      <c r="R11" s="448"/>
+      <c r="S11" s="449"/>
+      <c r="T11" s="447" t="s">
         <v>330</v>
       </c>
-      <c r="U11" s="430"/>
-      <c r="V11" s="431"/>
-      <c r="W11" s="423" t="s">
+      <c r="U11" s="448"/>
+      <c r="V11" s="449"/>
+      <c r="W11" s="456" t="s">
         <v>298</v>
       </c>
-      <c r="X11" s="424"/>
-      <c r="Y11" s="425"/>
-      <c r="Z11" s="423" t="s">
+      <c r="X11" s="457"/>
+      <c r="Y11" s="458"/>
+      <c r="Z11" s="456" t="s">
         <v>331</v>
       </c>
-      <c r="AA11" s="424"/>
-      <c r="AB11" s="425"/>
-      <c r="AC11" s="423" t="s">
+      <c r="AA11" s="457"/>
+      <c r="AB11" s="458"/>
+      <c r="AC11" s="456" t="s">
         <v>332</v>
       </c>
-      <c r="AD11" s="424"/>
-      <c r="AE11" s="425"/>
-      <c r="AF11" s="426" t="s">
+      <c r="AD11" s="457"/>
+      <c r="AE11" s="458"/>
+      <c r="AF11" s="444" t="s">
         <v>333</v>
       </c>
-      <c r="AG11" s="427"/>
-      <c r="AH11" s="428"/>
+      <c r="AG11" s="445"/>
+      <c r="AH11" s="446"/>
       <c r="AI11" s="115"/>
       <c r="AJ11" s="115"/>
       <c r="AK11" s="115"/>
@@ -32389,30 +32374,17 @@
     </row>
   </sheetData>
   <mergeCells count="51">
-    <mergeCell ref="AI2:AK2"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="E2:G2"/>
-    <mergeCell ref="H2:J2"/>
-    <mergeCell ref="K2:M2"/>
-    <mergeCell ref="N2:P2"/>
-    <mergeCell ref="Q2:S2"/>
-    <mergeCell ref="T2:V2"/>
-    <mergeCell ref="W2:Y2"/>
-    <mergeCell ref="Z2:AB2"/>
-    <mergeCell ref="AC2:AE2"/>
-    <mergeCell ref="AF2:AH2"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="F5:H5"/>
-    <mergeCell ref="I5:K5"/>
-    <mergeCell ref="L5:N5"/>
-    <mergeCell ref="O5:Q5"/>
-    <mergeCell ref="AD5:AF5"/>
-    <mergeCell ref="AG5:AI5"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="N4:O4"/>
-    <mergeCell ref="Q4:R4"/>
-    <mergeCell ref="T4:U4"/>
+    <mergeCell ref="Z11:AB11"/>
+    <mergeCell ref="AC11:AE11"/>
+    <mergeCell ref="AF11:AH11"/>
+    <mergeCell ref="AB8:AD8"/>
+    <mergeCell ref="AE8:AG8"/>
+    <mergeCell ref="AH8:AJ8"/>
+    <mergeCell ref="E11:G11"/>
+    <mergeCell ref="H11:J11"/>
+    <mergeCell ref="K11:M11"/>
+    <mergeCell ref="N11:P11"/>
+    <mergeCell ref="Q11:S11"/>
     <mergeCell ref="T11:V11"/>
     <mergeCell ref="W11:Y11"/>
     <mergeCell ref="AJ5:AL5"/>
@@ -32429,17 +32401,30 @@
     <mergeCell ref="U5:W5"/>
     <mergeCell ref="X5:Z5"/>
     <mergeCell ref="AA5:AC5"/>
-    <mergeCell ref="E11:G11"/>
-    <mergeCell ref="H11:J11"/>
-    <mergeCell ref="K11:M11"/>
-    <mergeCell ref="N11:P11"/>
-    <mergeCell ref="Q11:S11"/>
-    <mergeCell ref="Z11:AB11"/>
-    <mergeCell ref="AC11:AE11"/>
-    <mergeCell ref="AF11:AH11"/>
-    <mergeCell ref="AB8:AD8"/>
-    <mergeCell ref="AE8:AG8"/>
-    <mergeCell ref="AH8:AJ8"/>
+    <mergeCell ref="AD5:AF5"/>
+    <mergeCell ref="AG5:AI5"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="N4:O4"/>
+    <mergeCell ref="Q4:R4"/>
+    <mergeCell ref="T4:U4"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="F5:H5"/>
+    <mergeCell ref="I5:K5"/>
+    <mergeCell ref="L5:N5"/>
+    <mergeCell ref="O5:Q5"/>
+    <mergeCell ref="AI2:AK2"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="H2:J2"/>
+    <mergeCell ref="K2:M2"/>
+    <mergeCell ref="N2:P2"/>
+    <mergeCell ref="Q2:S2"/>
+    <mergeCell ref="T2:V2"/>
+    <mergeCell ref="W2:Y2"/>
+    <mergeCell ref="Z2:AB2"/>
+    <mergeCell ref="AC2:AE2"/>
+    <mergeCell ref="AF2:AH2"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
